--- a/thesis/floodDispatch2.0/data/baseData/泄流能力曲线.xlsx
+++ b/thesis/floodDispatch2.0/data/baseData/泄流能力曲线.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\study\studyProjects\qrfGitRepository\thesis\floodDispatch2.0\data\baseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03151500-B315-40C7-BA1D-C44F02FDC0F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109EC3DD-0265-41E7-BEA4-3BE630FB0A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="22365" windowHeight="9930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="22365" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XLD" sheetId="5" r:id="rId1"/>
@@ -53,11 +53,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -106,6 +108,1405 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>溪洛渡泄流能力曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>XLD!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>XLD!$B$2:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>14274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15622</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16676</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17077</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17492</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17929</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18385</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18856</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19343</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19846</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20362</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20895</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21439</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22570</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23154</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23747</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24359</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24979</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25611</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26189</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26701</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27163</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27575</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27945</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28289</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28618</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28936</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29234</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29522</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29810</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30094</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30370</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30646</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30916</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31182</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31448</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31710</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32008</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32477</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33051</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33712</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34446</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35255</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>36129</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>38034</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39064</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40146</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41277</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42464</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43682</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44952</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>46257</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>47611</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49007</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AA5-4FAE-AB95-FD6E8ED6D013}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1573131967"/>
+        <c:axId val="1456807327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1573131967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>水位</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456807327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1456807327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>下泄流量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(m³/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1573131967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B382F23C-9DE1-44E4-9103-933340EEECD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -947,6 +2348,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1110,7 +2512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
